--- a/excel/library2.xlsx
+++ b/excel/library2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weexi\PythonWorkspace\Solstice\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59419C34-1B6B-40D4-B36C-2F485273A2E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC6A7FF-E438-4A2E-815C-3D4DA9114F3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{A2BFD644-BCED-4592-A777-17D26257EA4B}"/>
+    <workbookView xWindow="4210" yWindow="1280" windowWidth="14400" windowHeight="7360" xr2:uid="{A2BFD644-BCED-4592-A777-17D26257EA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F916BEF0-FEE4-48D7-91A0-D9FFFAB446FB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
